--- a/Data/Population_density.xlsx
+++ b/Data/Population_density.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charly\Documents\Data Science\Projects\water_management\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E88CA8F-5492-40A1-A2BD-74776B4A6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7766FADC-C998-42AB-B9B7-95BF5771BCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="3945" windowWidth="27960" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="3825" windowWidth="27900" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Clave</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre </t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Aguas del Valle de México</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1">
         <v>2005</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>21.751774382774066</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>12.699902203477889</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>25.738729137473932</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>88.62159585705821</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>48.805376019329508</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>26.366535191066486</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>21.313349784938787</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>104.06030448002824</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>38.147791664043311</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="3">
         <v>91.650634073900378</v>
@@ -1082,10 +1082,10 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>63.821987204068868</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>26.452761674660643</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="3">
         <v>1124.0100938065721</v>
